--- a/上线准备/上线备忘录.xlsx
+++ b/上线准备/上线备忘录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>业务类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,12 +67,36 @@
 (3).修改对应的ip地址为第三方生产的ip地址，端口号保持18031/18030不变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>华商一卡通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP表的配置：ftpNo是hsscCheckFile,第三方IP地址目前配的是182.53.15.169，需要改。   Bus_typ=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海路桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返盘文件及协议删除失败的文件放置路径目前是绝对路径，需确认。本地协议表的agtsts表示对公对私 bus_typ=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_typ=2  缴费验密标志没有设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,21 +222,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,10 +330,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +364,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,20 +539,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="126" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -541,30 +563,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" ht="54">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="198.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="198.75" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="121.5">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -573,97 +595,109 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>

--- a/上线准备/上线备忘录.xlsx
+++ b/上线准备/上线备忘录.xlsx
@@ -84,11 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返盘文件及协议删除失败的文件放置路径目前是绝对路径，需确认。本地协议表的agtsts表示对公对私 bus_typ=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bus_typ=2  缴费验密标志没有设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返盘文件及协议删除失败的文件放置路径目前是绝对路径，需确认。本地协议表的agtsts表示对公对私 bus_typ=0  "com.bocom.bbip.eups.interceptor.ServiceThdInterceptor"中的端口30162，本地是6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +543,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4"/>
     </row>

--- a/上线准备/上线备忘录.xlsx
+++ b/上线准备/上线备忘录.xlsx
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FTP表的配置：ftpNo是hsscCheckFile,第三方IP地址目前配的是182.53.15.169，需要改。   Bus_typ=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>珠海路桥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,7 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返盘文件及协议删除失败的文件放置路径目前是绝对路径，需确认。本地协议表的agtsts表示对公对私 bus_typ=0  "com.bocom.bbip.eups.interceptor.ServiceThdInterceptor"中的端口30162，本地是6000</t>
+    <t>FTP表的配置：ftpNo是hsscCheckFile,第三方IP地址目前配的是182.53.15.169，需要改。   Bus_typ=2  对账文件定时发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返盘文件及协议删除失败的文件放置路径目前是绝对路径，需确认，需要配置成定时发。本地协议表的agtsts表示对公对私 bus_typ=0  "com.bocom.bbip.eups.interceptor.ServiceThdInterceptor"中的端口30162，本地是6000  。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -615,10 +615,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="4"/>
     </row>
